--- a/middle.xlsx
+++ b/middle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="805">
   <si>
     <t>外部运单号</t>
   </si>
@@ -794,10 +794,22 @@
     <t>湖南省-长沙市-长沙县榔梨街道青园路弘广物流分拨中心</t>
   </si>
   <si>
+    <t>西瓜</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>59.0</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>玻璃</t>
   </si>
   <si>
     <t>商品(商品)数量(120)</t>
@@ -2974,7 +2986,7 @@
   <sheetData>
     <row r="1" ht="302" customHeight="1" spans="1:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -19362,7 +19374,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -19377,7 +19389,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="5"/>
       <c r="G4" s="16" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="5"/>
@@ -19415,25 +19427,25 @@
         <v>1</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="18">
         <v>0</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="18">
         <v>1</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="21" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="Q5" s="20"/>
     </row>
@@ -19442,39 +19454,39 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="18">
         <v>2</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="18">
         <v>1</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="18">
         <v>2</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="21" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
@@ -19493,25 +19505,25 @@
         <v>3</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="18">
         <v>2</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="18">
         <v>3</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="21" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="21"/>
@@ -19524,28 +19536,28 @@
         <v>4</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="18">
         <v>4</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="18">
         <v>3</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="18">
         <v>4</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -19559,28 +19571,28 @@
         <v>5</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="22">
         <v>5</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="18">
         <v>4</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="18">
         <v>5</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -19592,7 +19604,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -19602,7 +19614,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -19617,7 +19629,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -19627,7 +19639,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -19642,7 +19654,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -19652,7 +19664,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -19667,7 +19679,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -19677,7 +19689,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -19696,7 +19708,7 @@
         <v>9</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="5"/>
@@ -19757,14 +19769,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="18">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -19782,20 +19794,20 @@
         <v>3</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D18" s="18">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="18">
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -19836,34 +19848,34 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
@@ -19879,13 +19891,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E23" s="27">
         <v>0</v>
@@ -19894,16 +19906,16 @@
         <v>300</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I23" s="27">
         <v>1</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
@@ -19919,7 +19931,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>74</v>
@@ -19929,13 +19941,13 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I24" s="27">
         <v>2</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="28"/>
@@ -19951,17 +19963,17 @@
         <v>3</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I25" s="27">
         <v>4</v>
@@ -19981,17 +19993,17 @@
         <v>4</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I26" s="27">
         <v>5</v>
@@ -20011,13 +20023,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E27" s="27">
         <v>0</v>
@@ -20027,13 +20039,13 @@
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I27" s="27">
         <v>7</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="28"/>
@@ -20049,13 +20061,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E28" s="27">
         <v>70</v>
@@ -20065,13 +20077,13 @@
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I28" s="27">
         <v>8</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="28"/>
@@ -20087,23 +20099,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I29" s="27">
         <v>19</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="K29" s="27"/>
       <c r="L29" s="28"/>
@@ -20119,13 +20131,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E30" s="27">
         <v>0</v>
@@ -20135,13 +20147,13 @@
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I30" s="27">
         <v>20</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="28"/>
@@ -20157,13 +20169,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E31" s="27">
         <v>500</v>
@@ -20173,13 +20185,13 @@
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I31" s="27">
         <v>24</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="28"/>
@@ -20195,13 +20207,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E32" s="27">
         <v>0</v>
@@ -20210,16 +20222,16 @@
         <v>300</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I32" s="27">
         <v>27</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="28"/>
@@ -20235,13 +20247,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E33" s="27">
         <v>0</v>
@@ -20251,7 +20263,7 @@
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I33" s="27">
         <v>29</v>
@@ -20271,13 +20283,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E34" s="27">
         <v>70</v>
@@ -20287,7 +20299,7 @@
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I34" s="27">
         <v>30</v>
@@ -20307,23 +20319,23 @@
         <v>13</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I35" s="27">
         <v>88</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="28"/>
@@ -20339,10 +20351,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="2"/>
@@ -20382,7 +20394,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -20390,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -20405,7 +20417,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -20420,7 +20432,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -20435,7 +20447,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -20450,7 +20462,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -20465,7 +20477,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -20480,7 +20492,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -20495,7 +20507,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
@@ -20510,7 +20522,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -20525,7 +20537,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -20540,7 +20552,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -20555,7 +20567,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -20570,7 +20582,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -20585,7 +20597,7 @@
         <v>14</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -20600,7 +20612,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -20615,7 +20627,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -20630,7 +20642,7 @@
         <v>17</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -20645,7 +20657,7 @@
         <v>18</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -20660,7 +20672,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -20675,7 +20687,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -20690,7 +20702,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -20705,7 +20717,7 @@
         <v>22</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -20720,7 +20732,7 @@
         <v>23</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -20735,7 +20747,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -20750,7 +20762,7 @@
         <v>25</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -20765,7 +20777,7 @@
         <v>26</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -20780,7 +20792,7 @@
         <v>27</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -20795,7 +20807,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -20810,7 +20822,7 @@
         <v>29</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -20825,7 +20837,7 @@
         <v>30</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -20840,7 +20852,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -20855,7 +20867,7 @@
         <v>32</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -20870,7 +20882,7 @@
         <v>33</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -20885,7 +20897,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -20900,7 +20912,7 @@
         <v>35</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -20915,7 +20927,7 @@
         <v>36</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -20930,7 +20942,7 @@
         <v>37</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -20945,7 +20957,7 @@
         <v>38</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -20960,7 +20972,7 @@
         <v>39</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -20975,7 +20987,7 @@
         <v>40</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -20990,7 +21002,7 @@
         <v>41</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -21005,7 +21017,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -21020,7 +21032,7 @@
         <v>43</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -21035,7 +21047,7 @@
         <v>44</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -21050,7 +21062,7 @@
         <v>45</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
@@ -21065,7 +21077,7 @@
         <v>46</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
@@ -21080,7 +21092,7 @@
         <v>47</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -21095,7 +21107,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -21110,7 +21122,7 @@
         <v>49</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -21125,7 +21137,7 @@
         <v>50</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
@@ -21140,7 +21152,7 @@
         <v>51</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -21155,7 +21167,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
@@ -21170,7 +21182,7 @@
         <v>53</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
@@ -22682,20 +22694,26 @@
       <c r="L29" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="M29" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="N29" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>52</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>238</v>
+        <v>263</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>54</v>
@@ -22704,45 +22722,45 @@
         <v>55</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>52</v>
@@ -22759,10 +22777,10 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>214</v>
@@ -22777,19 +22795,19 @@
         <v>182</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>206</v>
@@ -22807,12 +22825,12 @@
         <v>55</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>136</v>
@@ -22824,13 +22842,13 @@
         <v>138</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>63</v>
@@ -22856,10 +22874,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>98</v>
@@ -22874,13 +22892,13 @@
         <v>101</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>101</v>
@@ -22904,7 +22922,7 @@
         <v>93</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>54</v>
@@ -22915,10 +22933,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>98</v>
@@ -22933,13 +22951,13 @@
         <v>101</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>101</v>
@@ -22963,7 +22981,7 @@
         <v>93</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>54</v>
@@ -22974,7 +22992,7 @@
     </row>
     <row r="35" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>136</v>
@@ -22986,13 +23004,13 @@
         <v>138</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>63</v>
@@ -23016,12 +23034,12 @@
         <v>55</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>136</v>
@@ -23033,13 +23051,13 @@
         <v>138</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>63</v>
@@ -23063,30 +23081,30 @@
         <v>55</v>
       </c>
       <c r="AR36" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>63</v>
@@ -23109,40 +23127,40 @@
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>54</v>
@@ -23151,33 +23169,33 @@
         <v>55</v>
       </c>
       <c r="AR38" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>185</v>
@@ -23186,7 +23204,7 @@
         <v>50</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>54</v>
@@ -23195,33 +23213,33 @@
         <v>55</v>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>185</v>
@@ -23230,7 +23248,7 @@
         <v>50</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>54</v>
@@ -23239,33 +23257,33 @@
         <v>55</v>
       </c>
       <c r="AR40" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>185</v>
@@ -23274,7 +23292,7 @@
         <v>50</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>54</v>
@@ -23283,45 +23301,45 @@
         <v>55</v>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>54</v>
@@ -23330,45 +23348,45 @@
         <v>55</v>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>54</v>
@@ -23377,33 +23395,33 @@
         <v>55</v>
       </c>
       <c r="AR43" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>185</v>
@@ -23412,7 +23430,7 @@
         <v>252</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>54</v>
@@ -23421,33 +23439,33 @@
         <v>55</v>
       </c>
       <c r="AR44" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>185</v>
@@ -23456,7 +23474,7 @@
         <v>252</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>54</v>
@@ -23465,15 +23483,15 @@
         <v>55</v>
       </c>
       <c r="AR45" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>98</v>
@@ -23488,13 +23506,13 @@
         <v>101</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>101</v>
@@ -23518,7 +23536,7 @@
         <v>93</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>54</v>
@@ -23529,28 +23547,28 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>185</v>
@@ -23573,37 +23591,37 @@
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>52</v>
@@ -23620,37 +23638,37 @@
     </row>
     <row r="49" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>52</v>
@@ -23667,28 +23685,28 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>185</v>
@@ -23711,28 +23729,28 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>185</v>
@@ -23755,28 +23773,28 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>185</v>
@@ -23785,7 +23803,7 @@
         <v>50</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>54</v>
@@ -23794,33 +23812,33 @@
         <v>55</v>
       </c>
       <c r="AR52" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>185</v>
@@ -23829,7 +23847,7 @@
         <v>50</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>54</v>
@@ -23838,42 +23856,42 @@
         <v>55</v>
       </c>
       <c r="AR53" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>54</v>
@@ -23882,33 +23900,33 @@
         <v>55</v>
       </c>
       <c r="AR54" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>185</v>
@@ -23917,7 +23935,7 @@
         <v>50</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>54</v>
@@ -23926,30 +23944,30 @@
         <v>55</v>
       </c>
       <c r="AR55" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>63</v>
@@ -23972,37 +23990,37 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>54</v>
@@ -24016,37 +24034,37 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>54</v>
@@ -24060,40 +24078,40 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>54</v>
@@ -24102,33 +24120,33 @@
         <v>55</v>
       </c>
       <c r="AR59" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>185</v>
@@ -24137,7 +24155,7 @@
         <v>73</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>54</v>
@@ -24151,28 +24169,28 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>185</v>
@@ -24181,7 +24199,7 @@
         <v>50</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>54</v>
@@ -24190,33 +24208,33 @@
         <v>55</v>
       </c>
       <c r="AR61" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>185</v>
@@ -24225,7 +24243,7 @@
         <v>50</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>54</v>
@@ -24234,33 +24252,33 @@
         <v>55</v>
       </c>
       <c r="AR62" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>185</v>
@@ -24269,7 +24287,7 @@
         <v>64</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>54</v>
@@ -24278,33 +24296,33 @@
         <v>55</v>
       </c>
       <c r="AR63" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>185</v>
@@ -24313,7 +24331,7 @@
         <v>64</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>54</v>
@@ -24322,33 +24340,33 @@
         <v>55</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>185</v>
@@ -24357,7 +24375,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>54</v>
@@ -24366,33 +24384,33 @@
         <v>55</v>
       </c>
       <c r="AR65" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>185</v>
@@ -24401,7 +24419,7 @@
         <v>64</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>54</v>
@@ -24410,33 +24428,33 @@
         <v>55</v>
       </c>
       <c r="AR66" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>185</v>
@@ -24445,7 +24463,7 @@
         <v>64</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>54</v>
@@ -24454,39 +24472,39 @@
         <v>55</v>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>65</v>
@@ -24506,28 +24524,28 @@
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>185</v>
@@ -24536,7 +24554,7 @@
         <v>50</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>54</v>
@@ -24545,33 +24563,33 @@
         <v>55</v>
       </c>
       <c r="AR69" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>185</v>
@@ -24580,7 +24598,7 @@
         <v>50</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>54</v>
@@ -24589,42 +24607,42 @@
         <v>55</v>
       </c>
       <c r="AR70" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>54</v>
@@ -24633,42 +24651,42 @@
         <v>55</v>
       </c>
       <c r="AR71" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>54</v>
@@ -24677,42 +24695,42 @@
         <v>55</v>
       </c>
       <c r="AR72" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>54</v>
@@ -24721,33 +24739,33 @@
         <v>55</v>
       </c>
       <c r="AR73" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>185</v>
@@ -24770,7 +24788,7 @@
     </row>
     <row r="75" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>76</v>
@@ -24779,22 +24797,22 @@
         <v>77</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>63</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O75" s="4" t="s">
         <v>65</v>
@@ -24814,7 +24832,7 @@
     </row>
     <row r="76" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>76</v>
@@ -24823,22 +24841,22 @@
         <v>77</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>65</v>
@@ -24858,7 +24876,7 @@
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>76</v>
@@ -24867,16 +24885,16 @@
         <v>77</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>63</v>
@@ -24902,7 +24920,7 @@
     </row>
     <row r="78" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>76</v>
@@ -24911,16 +24929,16 @@
         <v>77</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>63</v>
@@ -24943,25 +24961,25 @@
     </row>
     <row r="79" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>63</v>
@@ -24987,43 +25005,43 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>73</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>52</v>
@@ -25043,25 +25061,25 @@
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>49</v>
@@ -25070,7 +25088,7 @@
         <v>50</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="R81" s="2" t="s">
         <v>52</v>
@@ -25087,28 +25105,28 @@
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>63</v>
@@ -25117,7 +25135,7 @@
         <v>50</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>106</v>
@@ -25137,31 +25155,31 @@
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>182</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>73</v>
@@ -25181,25 +25199,25 @@
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>63</v>
@@ -25208,10 +25226,10 @@
         <v>73</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="R84" s="2" t="s">
         <v>52</v>
@@ -25220,7 +25238,7 @@
         <v>53</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>54</v>
@@ -25231,28 +25249,28 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>185</v>
@@ -25275,25 +25293,25 @@
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>63</v>
@@ -25302,7 +25320,7 @@
         <v>64</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="R86" s="2" t="s">
         <v>52</v>
@@ -25319,7 +25337,7 @@
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>76</v>
@@ -25331,13 +25349,13 @@
         <v>78</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>63</v>
@@ -25360,43 +25378,43 @@
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>52</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>54</v>
@@ -25407,28 +25425,28 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>185</v>
@@ -25451,25 +25469,25 @@
     </row>
     <row r="90" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>49</v>
@@ -25478,7 +25496,7 @@
         <v>73</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>52</v>
@@ -25495,37 +25513,37 @@
     </row>
     <row r="91" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>73</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="R91" s="2" t="s">
         <v>52</v>
@@ -25540,30 +25558,30 @@
         <v>55</v>
       </c>
       <c r="AR91" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>63</v>
@@ -25572,7 +25590,7 @@
         <v>50</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>52</v>
@@ -25589,28 +25607,28 @@
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>63</v>
@@ -25619,13 +25637,13 @@
         <v>73</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>52</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>54</v>
@@ -25636,25 +25654,25 @@
     </row>
     <row r="94" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>91</v>
@@ -25663,10 +25681,10 @@
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>52</v>
@@ -25681,33 +25699,33 @@
         <v>55</v>
       </c>
       <c r="AR94" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>63</v>
@@ -25736,34 +25754,34 @@
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>185</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>186</v>
@@ -25780,37 +25798,37 @@
     </row>
     <row r="97" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="N97" s="3" t="s">
         <v>73</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="R97" s="2" t="s">
         <v>52</v>
@@ -25827,25 +25845,25 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I98" s="2">
         <v>NaN</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>54</v>
@@ -25856,7 +25874,7 @@
     </row>
     <row r="99" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>76</v>
@@ -25865,16 +25883,16 @@
         <v>77</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>63</v>
@@ -25897,25 +25915,25 @@
     </row>
     <row r="100" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>63</v>
@@ -25924,7 +25942,7 @@
         <v>64</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="R100" s="2" t="s">
         <v>52</v>
